--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.56869633333334</v>
+        <v>2.997390666666667</v>
       </c>
       <c r="H2">
-        <v>154.706089</v>
+        <v>8.992172</v>
       </c>
       <c r="I2">
-        <v>0.1855839901450455</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="J2">
-        <v>0.1855839901450455</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>67.40578676860891</v>
+        <v>1.285110266598667</v>
       </c>
       <c r="R2">
-        <v>606.6520809174801</v>
+        <v>11.565992399388</v>
       </c>
       <c r="S2">
-        <v>0.0023314232896724</v>
+        <v>6.17758294428186E-05</v>
       </c>
       <c r="T2">
-        <v>0.0023314232896724</v>
+        <v>6.17758294428186E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.56869633333334</v>
+        <v>2.997390666666667</v>
       </c>
       <c r="H3">
-        <v>154.706089</v>
+        <v>8.992172</v>
       </c>
       <c r="I3">
-        <v>0.1855839901450455</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="J3">
-        <v>0.1855839901450455</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
-        <v>4137.162453819033</v>
+        <v>240.469374005588</v>
       </c>
       <c r="R3">
-        <v>37234.46208437128</v>
+        <v>2164.224366050292</v>
       </c>
       <c r="S3">
-        <v>0.1430956800653181</v>
+        <v>0.01155947113714076</v>
       </c>
       <c r="T3">
-        <v>0.1430956800653181</v>
+        <v>0.01155947113714076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.56869633333334</v>
+        <v>2.997390666666667</v>
       </c>
       <c r="H4">
-        <v>154.706089</v>
+        <v>8.992172</v>
       </c>
       <c r="I4">
-        <v>0.1855839901450455</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="J4">
-        <v>0.1855839901450455</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>1161.010340872919</v>
+        <v>70.12733470420845</v>
       </c>
       <c r="R4">
-        <v>10449.09306785627</v>
+        <v>631.1460123378761</v>
       </c>
       <c r="S4">
-        <v>0.040156886790055</v>
+        <v>0.003371052570790449</v>
       </c>
       <c r="T4">
-        <v>0.040156886790055</v>
+        <v>0.003371052570790449</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>495.1056600000001</v>
       </c>
       <c r="I5">
-        <v>0.5939241598059933</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="J5">
-        <v>0.5939241598059933</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>215.7186362968</v>
+        <v>70.75769532846002</v>
       </c>
       <c r="R5">
-        <v>1941.4677266712</v>
+        <v>636.8192579561401</v>
       </c>
       <c r="S5">
-        <v>0.007461250387970347</v>
+        <v>0.003401354289968446</v>
       </c>
       <c r="T5">
-        <v>0.007461250387970347</v>
+        <v>0.003401354289968446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>495.1056600000001</v>
       </c>
       <c r="I6">
-        <v>0.5939241598059933</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="J6">
-        <v>0.5939241598059933</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
         <v>13240.15467306714</v>
@@ -818,10 +818,10 @@
         <v>119161.3920576043</v>
       </c>
       <c r="S6">
-        <v>0.4579488860447383</v>
+        <v>0.6364601996720067</v>
       </c>
       <c r="T6">
-        <v>0.4579488860447383</v>
+        <v>0.6364601996720067</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>495.1056600000001</v>
       </c>
       <c r="I7">
-        <v>0.5939241598059933</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="J7">
-        <v>0.5939241598059933</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>3715.57961810224</v>
+        <v>3861.185076616421</v>
       </c>
       <c r="R7">
-        <v>33440.21656292017</v>
+        <v>34750.66568954779</v>
       </c>
       <c r="S7">
-        <v>0.1285140233732847</v>
+        <v>0.1856089060524979</v>
       </c>
       <c r="T7">
-        <v>0.1285140233732847</v>
+        <v>0.1856089060524979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.26863233333334</v>
+        <v>31.89607</v>
       </c>
       <c r="H8">
-        <v>183.805897</v>
+        <v>95.68821</v>
       </c>
       <c r="I8">
-        <v>0.2204918500489612</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="J8">
-        <v>0.2204918500489612</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N8">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q8">
-        <v>80.08463778044889</v>
+        <v>13.67521674001</v>
       </c>
       <c r="R8">
-        <v>720.7617400240401</v>
+        <v>123.07695066009</v>
       </c>
       <c r="S8">
-        <v>0.002769957871825759</v>
+        <v>0.0006573738292204162</v>
       </c>
       <c r="T8">
-        <v>0.002769957871825759</v>
+        <v>0.0006573738292204162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.26863233333334</v>
+        <v>31.89607</v>
       </c>
       <c r="H9">
-        <v>183.805897</v>
+        <v>95.68821</v>
       </c>
       <c r="I9">
-        <v>0.2204918500489612</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="J9">
-        <v>0.2204918500489612</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
         <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q9">
-        <v>4915.351818239864</v>
+        <v>2558.901671188589</v>
       </c>
       <c r="R9">
-        <v>44238.16636415877</v>
+        <v>23030.11504069731</v>
       </c>
       <c r="S9">
-        <v>0.1700116007148937</v>
+        <v>0.1230075560898595</v>
       </c>
       <c r="T9">
-        <v>0.1700116007148937</v>
+        <v>0.1230075560898595</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.26863233333334</v>
+        <v>31.89607</v>
       </c>
       <c r="H10">
-        <v>183.805897</v>
+        <v>95.68821</v>
       </c>
       <c r="I10">
-        <v>0.2204918500489612</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="J10">
-        <v>0.2204918500489612</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N10">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q10">
-        <v>1379.39332905263</v>
+        <v>746.2445257849366</v>
       </c>
       <c r="R10">
-        <v>12414.53996147367</v>
+        <v>6716.20073206443</v>
       </c>
       <c r="S10">
-        <v>0.04771029146224173</v>
+        <v>0.0358723105290731</v>
       </c>
       <c r="T10">
-        <v>0.04771029146224173</v>
+        <v>0.0358723105290731</v>
       </c>
     </row>
   </sheetData>
